--- a/storage/app/public/test.xlsx
+++ b/storage/app/public/test.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>発行日</t>
     <rPh sb="0" eb="2">
@@ -225,6 +225,10 @@
     <rPh sb="0" eb="2">
       <t>ケンメイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>aaa</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -326,7 +330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -370,19 +374,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -528,196 +519,82 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -750,81 +627,76 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thick">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -848,28 +720,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -881,7 +747,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -899,28 +765,91 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="3" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -929,8 +858,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -938,139 +873,76 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="38" fontId="4" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="38" fontId="4" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="38" fontId="4" fillId="3" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="3" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1394,492 +1266,551 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection sqref="A1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="5.8984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.69921875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.09765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="3" style="3" customWidth="1"/>
-    <col min="7" max="7" width="3.796875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3" style="3" customWidth="1"/>
-    <col min="9" max="9" width="21.8984375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="1.59765625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="5.69921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.8984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.3984375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.09765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="3" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.796875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="3" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.8984375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="1.59765625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="59"/>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="60" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="5">
+      <c r="H2" s="49"/>
+      <c r="I2" s="4">
         <v>43834</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="25" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="27"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="16">
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="14">
         <v>43837</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="42" t="s">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="44" t="s">
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="54"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="57" t="str">
+      <c r="A17" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="23" t="str">
         <f>+IF(D17="","",D17*E17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="55"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="57" t="str">
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="21" t="str">
         <f>+IF(D18="","",D18*E18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="55"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="57" t="str">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="21" t="str">
         <f t="shared" ref="I19" si="0">+IF(D19="","",D19*E19)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="55"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="57" t="str">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="21" t="str">
         <f t="shared" ref="I20:I25" si="1">+IF(D20="","",D20*E20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="55"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="57" t="str">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="55"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="57" t="str">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="55"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="57" t="str">
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="55"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="57" t="str">
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="56"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="63" t="str">
+      <c r="A25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="36" t="s">
+      <c r="B26" s="61"/>
+      <c r="C26" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="64" t="s">
+      <c r="D26" s="30"/>
+      <c r="E26" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="66">
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="23">
         <f>SUM(I17:I25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="9" t="s">
+      <c r="A27" s="42"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="8">
         <v>0.1</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="57">
+      <c r="I27" s="21">
         <f>+I26*G27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="34" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="58">
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="22">
         <f>SUM(I26:I27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="68"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-    </row>
-    <row r="30" spans="1:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="69" t="s">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="71"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="72"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="73"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="57"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="72"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="73"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="57"/>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="72"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="73"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="57"/>
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="74"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="76"/>
-    </row>
-    <row r="35" spans="1:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.45"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="60"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>4</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>6</v>
+      </c>
+      <c r="G35" s="2">
+        <v>7</v>
+      </c>
+      <c r="H35" s="2">
+        <v>8</v>
+      </c>
+      <c r="I35" s="2">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F4:I9"/>
+    <mergeCell ref="A5:C9"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A31:I34"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A26:B28"/>
+    <mergeCell ref="A25:C25"/>
     <mergeCell ref="E19:H19"/>
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E21:H21"/>
@@ -1891,35 +1822,6 @@
     <mergeCell ref="E26:H26"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="C26:D28"/>
-    <mergeCell ref="A31:I34"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A26:B28"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="F4:I9"/>
-    <mergeCell ref="A5:C9"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.23622047244094491" top="0.74803149606299213" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.15748031496062992"/>

--- a/storage/app/public/test.xlsx
+++ b/storage/app/public/test.xlsx
@@ -196,14 +196,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">東京都江東区常盤1-10-5
-○○○○ビル
-TEL 03-5600-0000
-FAX 03-5600-0000
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">株式会社XXXXX
 ○○センター
 〒100-0000 港区赤坂1-1-1
@@ -229,6 +221,14 @@
   </si>
   <si>
     <t>aaa</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">東京都江東区常盤9-99-99
+○○○○ビル
+TEL 03-5600-0000
+FAX 03-5600-0000
+</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -789,9 +789,132 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="4" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="3" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="3" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -804,146 +927,23 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="3" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="3" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="3" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1267,7 +1267,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -1286,33 +1286,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="50"/>
+      <c r="H1" s="42"/>
       <c r="I1" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="49"/>
+      <c r="H2" s="41"/>
       <c r="I2" s="4">
         <v>43834</v>
       </c>
@@ -1326,87 +1326,87 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="76"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+      <c r="F4" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
+      <c r="A5" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="11"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="12"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="13"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="13"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="13"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="5"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -1414,12 +1414,12 @@
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
       <c r="E11" s="5"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -1427,17 +1427,17 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
@@ -1445,24 +1445,24 @@
       <c r="C13" s="5"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="14">
         <v>43837</v>
       </c>
@@ -1479,177 +1479,177 @@
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
       <c r="I16" s="19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
+      <c r="A17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="23" t="str">
         <f>+IF(D17="","",D17*E17)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
       <c r="D18" s="20"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
       <c r="I18" s="21" t="str">
         <f>+IF(D18="","",D18*E18)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="34"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="20"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="21" t="str">
         <f t="shared" ref="I19" si="0">+IF(D19="","",D19*E19)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="34"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
       <c r="D20" s="20"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="21" t="str">
         <f t="shared" ref="I20:I25" si="1">+IF(D20="","",D20*E20)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="20"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
       <c r="D22" s="20"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
       <c r="I22" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
       <c r="I23" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="34"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
       <c r="I24" s="21" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="71"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="75" t="str">
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="64" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="26" t="s">
+      <c r="D26" s="72"/>
+      <c r="E26" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
       <c r="I26" s="23">
         <f>SUM(I17:I25)</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="42"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="31"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="74"/>
       <c r="E27" s="7" t="s">
         <v>9</v>
       </c>
@@ -1668,16 +1668,16 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="43"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="28" t="s">
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
       <c r="I28" s="22">
         <f>SUM(I26:I27)</f>
         <v>0</v>
@@ -1695,61 +1695,61 @@
       <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="65"/>
     </row>
     <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="56"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="57"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="51"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="56"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="57"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="51"/>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="56"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="57"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="51"/>
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="58"/>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="60"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="54"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="2">
@@ -1782,25 +1782,11 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="F4:I9"/>
-    <mergeCell ref="A5:C9"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C26:D28"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
@@ -1817,11 +1803,25 @@
     <mergeCell ref="E22:H22"/>
     <mergeCell ref="A30:I30"/>
     <mergeCell ref="E23:H23"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C26:D28"/>
+    <mergeCell ref="A5:C9"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="F4:I9"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.39370078740157483" right="0.23622047244094491" top="0.74803149606299213" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.15748031496062992"/>
